--- a/gtrends_btc_coffee_xls.xlsx
+++ b/gtrends_btc_coffee_xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e232a32223c20945/Desktop/DA_FT_FEB25_Ironhack-Bootcamp/week3/quest/Bitcoin-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02938C4-022E-4AEC-B913-58E91C6F97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{E02938C4-022E-4AEC-B913-58E91C6F97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57E22EC-148B-41A7-B109-ECF73977CBF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8A038232-0E73-4E43-B492-67815AABC3E4}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
-  <si>
-    <t>Kategorie: Alle Kategorien</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Monat</t>
   </si>
@@ -1432,31 +1429,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F5E97B-7D02-4CC0-974B-56FCBD49AB62}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1467,62 +1487,62 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1533,7 +1553,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1544,285 +1564,285 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>28</v>
@@ -1830,51 +1850,51 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1885,54 +1905,54 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>24</v>
@@ -1940,43 +1960,43 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>27</v>
@@ -1984,117 +2004,117 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -2105,32 +2125,32 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>26</v>
@@ -2138,10 +2158,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>25</v>
@@ -2149,117 +2169,117 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2270,32 +2290,32 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>28</v>
@@ -2303,87 +2323,87 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>32</v>
@@ -2391,7 +2411,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -2402,54 +2422,54 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C94">
         <v>33</v>
@@ -2457,65 +2477,65 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C95">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C97">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C98">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C99">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -2523,10 +2543,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>33</v>
@@ -2534,21 +2554,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>33</v>
@@ -2556,54 +2576,54 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C107">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C108">
         <v>36</v>
@@ -2611,21 +2631,21 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C109">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C110">
         <v>36</v>
@@ -2633,18 +2653,18 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -2655,230 +2675,230 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C114">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C115">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C117">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C118">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C124">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C125">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>13</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C131">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C132">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C133">
         <v>41</v>
@@ -2886,43 +2906,43 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C134">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C135">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C136">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C137">
         <v>39</v>
@@ -2930,54 +2950,54 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C138">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C139">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C140">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C141">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C142">
         <v>40</v>
@@ -2985,131 +3005,131 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C143">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C145">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C146">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C147">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C148">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C149">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C150">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C151">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C152">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C153">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>43</v>
@@ -3117,21 +3137,21 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C156">
         <v>43</v>
@@ -3139,21 +3159,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C158">
         <v>43</v>
@@ -3161,10 +3181,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C159">
         <v>45</v>
@@ -3172,10 +3192,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>43</v>
@@ -3183,65 +3203,65 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C162">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C163">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>18</v>
       </c>
       <c r="C164">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C165">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C166">
         <v>46</v>
@@ -3249,10 +3269,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C167">
         <v>44</v>
@@ -3260,120 +3280,120 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C168">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C169">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C170">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C171">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C172">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C173">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C174">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C175">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176">
         <v>21</v>
       </c>
       <c r="C176">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C177">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C178">
         <v>47</v>
@@ -3381,56 +3401,34 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C179">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C180">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C181">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182">
-        <v>46</v>
-      </c>
-      <c r="C182">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
-        <v>40</v>
-      </c>
-      <c r="C183">
         <v>54</v>
       </c>
     </row>

--- a/gtrends_btc_coffee_xls.xlsx
+++ b/gtrends_btc_coffee_xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e232a32223c20945/Desktop/DA_FT_FEB25_Ironhack-Bootcamp/week3/quest/Bitcoin-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E02938C4-022E-4AEC-B913-58E91C6F97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57E22EC-148B-41A7-B109-ECF73977CBF4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{E02938C4-022E-4AEC-B913-58E91C6F97F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCD2C41-EE5D-4E49-94D4-8CEA64561677}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8A038232-0E73-4E43-B492-67815AABC3E4}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
-    <t>Monat</t>
-  </si>
-  <si>
-    <t>Bitcoin: (Weltweit)</t>
-  </si>
-  <si>
-    <t>Coffee: (Weltweit)</t>
-  </si>
-  <si>
     <t>2010-01</t>
   </si>
   <si>
@@ -569,6 +560,15 @@
   </si>
   <si>
     <t>2024-12</t>
+  </si>
+  <si>
+    <t>google_trends_btc</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>google_trends_coffee</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1112,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1432,7 +1436,7 @@
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,18 +1447,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1465,7 +1469,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1476,7 +1480,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1487,7 +1491,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1509,7 +1513,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1520,7 +1524,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1531,7 +1535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1542,7 +1546,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1553,7 +1557,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1564,7 +1568,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1575,7 +1579,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1586,7 +1590,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1597,7 +1601,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1619,7 +1623,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1630,7 +1634,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1641,7 +1645,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1652,7 +1656,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1663,7 +1667,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1674,7 +1678,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1685,7 +1689,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1696,7 +1700,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1707,7 +1711,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1718,7 +1722,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1729,7 +1733,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1740,7 +1744,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1751,7 +1755,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1762,7 +1766,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1784,7 +1788,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1795,7 +1799,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1806,7 +1810,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1817,7 +1821,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1828,7 +1832,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1839,7 +1843,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1861,7 +1865,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1872,7 +1876,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1883,7 +1887,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -1894,7 +1898,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1905,7 +1909,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1916,7 +1920,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1927,7 +1931,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1938,7 +1942,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1949,7 +1953,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -1960,7 +1964,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1971,7 +1975,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1993,7 +1997,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -2004,7 +2008,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2015,7 +2019,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2026,7 +2030,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -2037,7 +2041,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -2048,7 +2052,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -2059,7 +2063,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -2070,7 +2074,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2081,7 +2085,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -2092,7 +2096,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -2103,7 +2107,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -2114,7 +2118,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -2125,7 +2129,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -2136,7 +2140,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -2147,7 +2151,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -2158,7 +2162,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2169,7 +2173,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2180,7 +2184,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -2191,7 +2195,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -2202,7 +2206,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2213,7 +2217,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2224,7 +2228,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2235,7 +2239,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -2246,7 +2250,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -2257,7 +2261,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2268,7 +2272,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2279,7 +2283,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2290,7 +2294,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -2301,7 +2305,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -2312,7 +2316,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2323,7 +2327,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2334,7 +2338,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2345,7 +2349,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2356,7 +2360,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -2367,7 +2371,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -2378,7 +2382,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -2389,7 +2393,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -2400,7 +2404,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -2411,7 +2415,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>15</v>
@@ -2433,7 +2437,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>15</v>
@@ -2444,7 +2448,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>12</v>
@@ -2455,7 +2459,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>21</v>
@@ -2466,7 +2470,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>22</v>
@@ -2477,7 +2481,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>23</v>
@@ -2488,7 +2492,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>45</v>
@@ -2499,7 +2503,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>100</v>
@@ -2510,7 +2514,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>53</v>
@@ -2521,7 +2525,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>41</v>
@@ -2532,7 +2536,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>24</v>
@@ -2543,7 +2547,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>18</v>
@@ -2554,7 +2558,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>14</v>
@@ -2565,7 +2569,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>13</v>
@@ -2576,7 +2580,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>13</v>
@@ -2587,7 +2591,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>12</v>
@@ -2598,7 +2602,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -2609,7 +2613,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2620,7 +2624,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>14</v>
@@ -2631,7 +2635,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -2642,7 +2646,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>9</v>
@@ -2653,7 +2657,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -2664,7 +2668,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -2675,7 +2679,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>12</v>
@@ -2686,7 +2690,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>17</v>
@@ -2697,7 +2701,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>21</v>
@@ -2708,7 +2712,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>18</v>
@@ -2719,7 +2723,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>15</v>
@@ -2730,7 +2734,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>12</v>
@@ -2741,7 +2745,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>11</v>
@@ -2763,7 +2767,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>11</v>
@@ -2774,7 +2778,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>13</v>
@@ -2785,7 +2789,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>14</v>
@@ -2796,7 +2800,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>19</v>
@@ -2807,7 +2811,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>16</v>
@@ -2818,7 +2822,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>20</v>
@@ -2829,7 +2833,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>14</v>
@@ -2840,7 +2844,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>13</v>
@@ -2851,7 +2855,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>16</v>
@@ -2862,7 +2866,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>13</v>
@@ -2873,7 +2877,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>14</v>
@@ -2884,7 +2888,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>23</v>
@@ -2895,7 +2899,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>31</v>
@@ -2906,7 +2910,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>65</v>
@@ -2917,7 +2921,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>68</v>
@@ -2928,7 +2932,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>47</v>
@@ -2939,7 +2943,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>50</v>
@@ -2950,7 +2954,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>67</v>
@@ -2961,7 +2965,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>47</v>
@@ -2972,7 +2976,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>30</v>
@@ -2983,7 +2987,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>31</v>
@@ -2994,7 +2998,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>31</v>
@@ -3005,7 +3009,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>37</v>
@@ -3016,7 +3020,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>34</v>
@@ -3027,7 +3031,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>33</v>
@@ -3038,7 +3042,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>40</v>
@@ -3049,7 +3053,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>35</v>
@@ -3060,7 +3064,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>30</v>
@@ -3071,7 +3075,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>24</v>
@@ -3082,7 +3086,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>36</v>
@@ -3093,7 +3097,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>41</v>
@@ -3104,7 +3108,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>29</v>
@@ -3115,7 +3119,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>22</v>
@@ -3126,7 +3130,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>21</v>
@@ -3137,7 +3141,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>17</v>
@@ -3148,7 +3152,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>27</v>
@@ -3159,7 +3163,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>18</v>
@@ -3170,7 +3174,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>20</v>
@@ -3181,7 +3185,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>19</v>
@@ -3192,7 +3196,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>23</v>
@@ -3203,7 +3207,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>20</v>
@@ -3214,7 +3218,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>18</v>
@@ -3225,7 +3229,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>18</v>
@@ -3236,7 +3240,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>18</v>
@@ -3247,7 +3251,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>17</v>
@@ -3258,7 +3262,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>15</v>
@@ -3269,7 +3273,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>18</v>
@@ -3280,7 +3284,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>20</v>
@@ -3291,7 +3295,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>24</v>
@@ -3302,7 +3306,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>28</v>
@@ -3313,7 +3317,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>25</v>
@@ -3324,7 +3328,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>41</v>
@@ -3335,7 +3339,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>30</v>
@@ -3346,7 +3350,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>21</v>
@@ -3357,7 +3361,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>19</v>
@@ -3368,7 +3372,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>21</v>
@@ -3379,7 +3383,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>23</v>
@@ -3390,7 +3394,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>18</v>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>18</v>
@@ -3412,7 +3416,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>46</v>
@@ -3423,7 +3427,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>40</v>
